--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1232.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1232.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.441200117610296</v>
+        <v>1.203398585319519</v>
       </c>
       <c r="B1">
-        <v>2.421142738976922</v>
+        <v>1.836362838745117</v>
       </c>
       <c r="C1">
-        <v>1.958781130133053</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.805564254793863</v>
+        <v>1.848986268043518</v>
       </c>
       <c r="E1">
-        <v>1.555998272816117</v>
+        <v>1.205420017242432</v>
       </c>
     </row>
   </sheetData>
